--- a/806.xlsx
+++ b/806.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ereil\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ereil\OneDrive\Desktop\806\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE70BD9E-5ADF-4B23-8DB6-EBB0455C4A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8568F1-854F-4310-A774-86AEE6E783BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AE777945-9436-4E05-951E-37BE36B870C1}"/>
   </bookViews>
@@ -6228,8 +6228,8 @@
   <dimension ref="A1:L974"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I965" sqref="I965:I973"/>
+      <pane ySplit="1" topLeftCell="A898" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G979" sqref="G979"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
